--- a/Analysis/analysis.xlsx
+++ b/Analysis/analysis.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin\GitHub\P6_Software\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB3A12-D707-4EEC-A28D-64BB1112BB00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CAFF24-D757-49FB-A5F2-A686D7B80DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="meas 14.47 17-07-2020" sheetId="2" r:id="rId2"/>
     <sheet name="meas 15.09 17-07-2020" sheetId="3" r:id="rId3"/>
+    <sheet name="meas 09.33 28-07-2020" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="888">
   <si>
     <t>Measurement Time [H:M:S:US]</t>
   </si>
@@ -1534,6 +1535,1158 @@
   </si>
   <si>
     <t>2310570333</t>
+  </si>
+  <si>
+    <t>09:34:59:752484</t>
+  </si>
+  <si>
+    <t>60507</t>
+  </si>
+  <si>
+    <t>414177776</t>
+  </si>
+  <si>
+    <t>-86</t>
+  </si>
+  <si>
+    <t>bda3</t>
+  </si>
+  <si>
+    <t>09:34:59:862114</t>
+  </si>
+  <si>
+    <t>60403</t>
+  </si>
+  <si>
+    <t>394830242</t>
+  </si>
+  <si>
+    <t>-87</t>
+  </si>
+  <si>
+    <t>09:34:59:972700</t>
+  </si>
+  <si>
+    <t>60141</t>
+  </si>
+  <si>
+    <t>387819164</t>
+  </si>
+  <si>
+    <t>-85</t>
+  </si>
+  <si>
+    <t>09:35:00:083327</t>
+  </si>
+  <si>
+    <t>59869</t>
+  </si>
+  <si>
+    <t>383622173</t>
+  </si>
+  <si>
+    <t>09:35:00:191233</t>
+  </si>
+  <si>
+    <t>59461</t>
+  </si>
+  <si>
+    <t>379901622</t>
+  </si>
+  <si>
+    <t>09:35:00:306267</t>
+  </si>
+  <si>
+    <t>59105</t>
+  </si>
+  <si>
+    <t>366049297</t>
+  </si>
+  <si>
+    <t>-89</t>
+  </si>
+  <si>
+    <t>09:35:00:420154</t>
+  </si>
+  <si>
+    <t>58776</t>
+  </si>
+  <si>
+    <t>364938427</t>
+  </si>
+  <si>
+    <t>09:35:00:529135</t>
+  </si>
+  <si>
+    <t>58498</t>
+  </si>
+  <si>
+    <t>363752025</t>
+  </si>
+  <si>
+    <t>09:35:00:653037</t>
+  </si>
+  <si>
+    <t>58177</t>
+  </si>
+  <si>
+    <t>360887554</t>
+  </si>
+  <si>
+    <t>-83</t>
+  </si>
+  <si>
+    <t>09:35:00:764388</t>
+  </si>
+  <si>
+    <t>414173176</t>
+  </si>
+  <si>
+    <t>a539</t>
+  </si>
+  <si>
+    <t>09:35:00:877615</t>
+  </si>
+  <si>
+    <t>394827351</t>
+  </si>
+  <si>
+    <t>09:35:00:991113</t>
+  </si>
+  <si>
+    <t>387814289</t>
+  </si>
+  <si>
+    <t>09:35:01:103426</t>
+  </si>
+  <si>
+    <t>383618275</t>
+  </si>
+  <si>
+    <t>09:35:01:221115</t>
+  </si>
+  <si>
+    <t>379897297</t>
+  </si>
+  <si>
+    <t>09:35:01:338076</t>
+  </si>
+  <si>
+    <t>59312</t>
+  </si>
+  <si>
+    <t>373818379</t>
+  </si>
+  <si>
+    <t>09:35:01:453149</t>
+  </si>
+  <si>
+    <t>366046162</t>
+  </si>
+  <si>
+    <t>09:35:01:566375</t>
+  </si>
+  <si>
+    <t>364933308</t>
+  </si>
+  <si>
+    <t>09:35:01:684982</t>
+  </si>
+  <si>
+    <t>363749165</t>
+  </si>
+  <si>
+    <t>09:35:01:803587</t>
+  </si>
+  <si>
+    <t>360883381</t>
+  </si>
+  <si>
+    <t>09:36:29:772684</t>
+  </si>
+  <si>
+    <t>62876</t>
+  </si>
+  <si>
+    <t>503788320</t>
+  </si>
+  <si>
+    <t>09:36:29:881508</t>
+  </si>
+  <si>
+    <t>62597</t>
+  </si>
+  <si>
+    <t>492734487</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>09:36:30:002904</t>
+  </si>
+  <si>
+    <t>62320</t>
+  </si>
+  <si>
+    <t>490969533</t>
+  </si>
+  <si>
+    <t>09:36:30:121744</t>
+  </si>
+  <si>
+    <t>62137</t>
+  </si>
+  <si>
+    <t>490516012</t>
+  </si>
+  <si>
+    <t>09:36:30:246023</t>
+  </si>
+  <si>
+    <t>61829</t>
+  </si>
+  <si>
+    <t>478566762</t>
+  </si>
+  <si>
+    <t>09:36:30:364423</t>
+  </si>
+  <si>
+    <t>61640</t>
+  </si>
+  <si>
+    <t>467724111</t>
+  </si>
+  <si>
+    <t>09:36:30:488254</t>
+  </si>
+  <si>
+    <t>61394</t>
+  </si>
+  <si>
+    <t>466298910</t>
+  </si>
+  <si>
+    <t>09:36:30:609114</t>
+  </si>
+  <si>
+    <t>60952</t>
+  </si>
+  <si>
+    <t>464867299</t>
+  </si>
+  <si>
+    <t>09:36:30:732847</t>
+  </si>
+  <si>
+    <t>60918</t>
+  </si>
+  <si>
+    <t>456519063</t>
+  </si>
+  <si>
+    <t>09:36:30:854337</t>
+  </si>
+  <si>
+    <t>63138</t>
+  </si>
+  <si>
+    <t>505015703</t>
+  </si>
+  <si>
+    <t>09:36:30:992102</t>
+  </si>
+  <si>
+    <t>503722795</t>
+  </si>
+  <si>
+    <t>09:36:31:133090</t>
+  </si>
+  <si>
+    <t>492728655</t>
+  </si>
+  <si>
+    <t>09:36:31:279613</t>
+  </si>
+  <si>
+    <t>490964678</t>
+  </si>
+  <si>
+    <t>09:36:31:424088</t>
+  </si>
+  <si>
+    <t>490510759</t>
+  </si>
+  <si>
+    <t>09:36:31:563664</t>
+  </si>
+  <si>
+    <t>478561723</t>
+  </si>
+  <si>
+    <t>09:36:31:705143</t>
+  </si>
+  <si>
+    <t>467684770</t>
+  </si>
+  <si>
+    <t>09:36:31:843682</t>
+  </si>
+  <si>
+    <t>466293779</t>
+  </si>
+  <si>
+    <t>09:36:31:992186</t>
+  </si>
+  <si>
+    <t>464862749</t>
+  </si>
+  <si>
+    <t>09:36:32:136741</t>
+  </si>
+  <si>
+    <t>456513811</t>
+  </si>
+  <si>
+    <t>09:37:59:774310</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>594849337</t>
+  </si>
+  <si>
+    <t>09:37:59:901692</t>
+  </si>
+  <si>
+    <t>65301</t>
+  </si>
+  <si>
+    <t>583378939</t>
+  </si>
+  <si>
+    <t>09:38:00:769581</t>
+  </si>
+  <si>
+    <t>594844846</t>
+  </si>
+  <si>
+    <t>09:38:00:904627</t>
+  </si>
+  <si>
+    <t>583372739</t>
+  </si>
+  <si>
+    <t>09:38:01:038495</t>
+  </si>
+  <si>
+    <t>65205</t>
+  </si>
+  <si>
+    <t>580259763</t>
+  </si>
+  <si>
+    <t>09:38:01:171123</t>
+  </si>
+  <si>
+    <t>64870</t>
+  </si>
+  <si>
+    <t>572812517</t>
+  </si>
+  <si>
+    <t>09:38:01:306668</t>
+  </si>
+  <si>
+    <t>64514</t>
+  </si>
+  <si>
+    <t>565552477</t>
+  </si>
+  <si>
+    <t>09:38:01:442212</t>
+  </si>
+  <si>
+    <t>64488</t>
+  </si>
+  <si>
+    <t>557658403</t>
+  </si>
+  <si>
+    <t>09:38:01:578756</t>
+  </si>
+  <si>
+    <t>64126</t>
+  </si>
+  <si>
+    <t>544479448</t>
+  </si>
+  <si>
+    <t>09:38:01:728255</t>
+  </si>
+  <si>
+    <t>63754</t>
+  </si>
+  <si>
+    <t>543324480</t>
+  </si>
+  <si>
+    <t>09:38:01:882741</t>
+  </si>
+  <si>
+    <t>63532</t>
+  </si>
+  <si>
+    <t>542570512</t>
+  </si>
+  <si>
+    <t>09:38:02:019284</t>
+  </si>
+  <si>
+    <t>63359</t>
+  </si>
+  <si>
+    <t>539663530</t>
+  </si>
+  <si>
+    <t>09:38:02:491207</t>
+  </si>
+  <si>
+    <t>580265688</t>
+  </si>
+  <si>
+    <t>09:38:02:629217</t>
+  </si>
+  <si>
+    <t>572816884</t>
+  </si>
+  <si>
+    <t>09:38:02:765132</t>
+  </si>
+  <si>
+    <t>565557577</t>
+  </si>
+  <si>
+    <t>09:38:02:911509</t>
+  </si>
+  <si>
+    <t>557662923</t>
+  </si>
+  <si>
+    <t>09:38:03:048588</t>
+  </si>
+  <si>
+    <t>544482503</t>
+  </si>
+  <si>
+    <t>09:38:03:185696</t>
+  </si>
+  <si>
+    <t>543327535</t>
+  </si>
+  <si>
+    <t>09:38:03:325679</t>
+  </si>
+  <si>
+    <t>542575155</t>
+  </si>
+  <si>
+    <t>09:38:03:479266</t>
+  </si>
+  <si>
+    <t>539672262</t>
+  </si>
+  <si>
+    <t>09:39:29:794064</t>
+  </si>
+  <si>
+    <t>2592</t>
+  </si>
+  <si>
+    <t>680642240</t>
+  </si>
+  <si>
+    <t>09:39:29:931602</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>678768216</t>
+  </si>
+  <si>
+    <t>09:39:30:076118</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>677250333</t>
+  </si>
+  <si>
+    <t>09:39:30:216092</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>675565335</t>
+  </si>
+  <si>
+    <t>09:39:30:358084</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>671651273</t>
+  </si>
+  <si>
+    <t>09:39:30:501412</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>658643216</t>
+  </si>
+  <si>
+    <t>09:39:30:646074</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>658169278</t>
+  </si>
+  <si>
+    <t>09:39:30:800331</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>657616361</t>
+  </si>
+  <si>
+    <t>09:39:30:942589</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>639371244</t>
+  </si>
+  <si>
+    <t>09:39:31:087375</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>635250272</t>
+  </si>
+  <si>
+    <t>09:39:31:229348</t>
+  </si>
+  <si>
+    <t>680646731</t>
+  </si>
+  <si>
+    <t>09:39:31:373110</t>
+  </si>
+  <si>
+    <t>678773409</t>
+  </si>
+  <si>
+    <t>09:39:31:514640</t>
+  </si>
+  <si>
+    <t>677254244</t>
+  </si>
+  <si>
+    <t>09:39:31:659011</t>
+  </si>
+  <si>
+    <t>675568636</t>
+  </si>
+  <si>
+    <t>09:39:31:809689</t>
+  </si>
+  <si>
+    <t>671655581</t>
+  </si>
+  <si>
+    <t>09:39:31:973143</t>
+  </si>
+  <si>
+    <t>658646365</t>
+  </si>
+  <si>
+    <t>-84</t>
+  </si>
+  <si>
+    <t>09:39:32:116359</t>
+  </si>
+  <si>
+    <t>658179629</t>
+  </si>
+  <si>
+    <t>-75</t>
+  </si>
+  <si>
+    <t>09:39:32:269687</t>
+  </si>
+  <si>
+    <t>657621462</t>
+  </si>
+  <si>
+    <t>09:39:32:415128</t>
+  </si>
+  <si>
+    <t>639376864</t>
+  </si>
+  <si>
+    <t>09:39:32:565497</t>
+  </si>
+  <si>
+    <t>635254000</t>
+  </si>
+  <si>
+    <t>09:40:59:793720</t>
+  </si>
+  <si>
+    <t>5139</t>
+  </si>
+  <si>
+    <t>771171206</t>
+  </si>
+  <si>
+    <t>09:40:59:931910</t>
+  </si>
+  <si>
+    <t>5047</t>
+  </si>
+  <si>
+    <t>770642489</t>
+  </si>
+  <si>
+    <t>09:41:00:084910</t>
+  </si>
+  <si>
+    <t>4686</t>
+  </si>
+  <si>
+    <t>767487185</t>
+  </si>
+  <si>
+    <t>09:41:00:235630</t>
+  </si>
+  <si>
+    <t>4527</t>
+  </si>
+  <si>
+    <t>748962679</t>
+  </si>
+  <si>
+    <t>09:41:00:398585</t>
+  </si>
+  <si>
+    <t>4199</t>
+  </si>
+  <si>
+    <t>745200869</t>
+  </si>
+  <si>
+    <t>09:41:00:546209</t>
+  </si>
+  <si>
+    <t>4054</t>
+  </si>
+  <si>
+    <t>722615573</t>
+  </si>
+  <si>
+    <t>09:41:00:696536</t>
+  </si>
+  <si>
+    <t>3788</t>
+  </si>
+  <si>
+    <t>721320803</t>
+  </si>
+  <si>
+    <t>09:41:00:842294</t>
+  </si>
+  <si>
+    <t>3475</t>
+  </si>
+  <si>
+    <t>720560763</t>
+  </si>
+  <si>
+    <t>09:41:00:992998</t>
+  </si>
+  <si>
+    <t>3278</t>
+  </si>
+  <si>
+    <t>718490756</t>
+  </si>
+  <si>
+    <t>09:41:01:142871</t>
+  </si>
+  <si>
+    <t>3051</t>
+  </si>
+  <si>
+    <t>718018008</t>
+  </si>
+  <si>
+    <t>09:41:01:296108</t>
+  </si>
+  <si>
+    <t>771168302</t>
+  </si>
+  <si>
+    <t>09:41:01:462027</t>
+  </si>
+  <si>
+    <t>770638272</t>
+  </si>
+  <si>
+    <t>09:41:01:616443</t>
+  </si>
+  <si>
+    <t>767483243</t>
+  </si>
+  <si>
+    <t>09:41:01:768319</t>
+  </si>
+  <si>
+    <t>748960172</t>
+  </si>
+  <si>
+    <t>09:41:01:925839</t>
+  </si>
+  <si>
+    <t>745198270</t>
+  </si>
+  <si>
+    <t>09:41:02:083351</t>
+  </si>
+  <si>
+    <t>722611173</t>
+  </si>
+  <si>
+    <t>09:41:02:233532</t>
+  </si>
+  <si>
+    <t>721317350</t>
+  </si>
+  <si>
+    <t>09:41:02:389323</t>
+  </si>
+  <si>
+    <t>720557279</t>
+  </si>
+  <si>
+    <t>09:41:02:541383</t>
+  </si>
+  <si>
+    <t>718487271</t>
+  </si>
+  <si>
+    <t>09:41:02:713850</t>
+  </si>
+  <si>
+    <t>718013211</t>
+  </si>
+  <si>
+    <t>09:42:29:793443</t>
+  </si>
+  <si>
+    <t>7914</t>
+  </si>
+  <si>
+    <t>859653960</t>
+  </si>
+  <si>
+    <t>09:42:30:808543</t>
+  </si>
+  <si>
+    <t>7485</t>
+  </si>
+  <si>
+    <t>854764932</t>
+  </si>
+  <si>
+    <t>09:42:30:961626</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>846155129</t>
+  </si>
+  <si>
+    <t>09:42:31:189962</t>
+  </si>
+  <si>
+    <t>7123</t>
+  </si>
+  <si>
+    <t>834838710</t>
+  </si>
+  <si>
+    <t>09:42:31:349428</t>
+  </si>
+  <si>
+    <t>6773</t>
+  </si>
+  <si>
+    <t>832714962</t>
+  </si>
+  <si>
+    <t>09:42:31:509891</t>
+  </si>
+  <si>
+    <t>6439</t>
+  </si>
+  <si>
+    <t>831884578</t>
+  </si>
+  <si>
+    <t>09:42:31:709222</t>
+  </si>
+  <si>
+    <t>6278</t>
+  </si>
+  <si>
+    <t>816317012</t>
+  </si>
+  <si>
+    <t>09:42:31:876701</t>
+  </si>
+  <si>
+    <t>5973</t>
+  </si>
+  <si>
+    <t>815970333</t>
+  </si>
+  <si>
+    <t>09:42:32:038167</t>
+  </si>
+  <si>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>813914913</t>
+  </si>
+  <si>
+    <t>09:42:32:199950</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>813221401</t>
+  </si>
+  <si>
+    <t>09:42:32:355943</t>
+  </si>
+  <si>
+    <t>854760039</t>
+  </si>
+  <si>
+    <t>09:42:32:521614</t>
+  </si>
+  <si>
+    <t>846093963</t>
+  </si>
+  <si>
+    <t>09:42:32:679913</t>
+  </si>
+  <si>
+    <t>834834083</t>
+  </si>
+  <si>
+    <t>09:42:32:837592</t>
+  </si>
+  <si>
+    <t>832711219</t>
+  </si>
+  <si>
+    <t>09:42:33:032841</t>
+  </si>
+  <si>
+    <t>831880164</t>
+  </si>
+  <si>
+    <t>09:42:33:200735</t>
+  </si>
+  <si>
+    <t>816311195</t>
+  </si>
+  <si>
+    <t>09:42:33:365190</t>
+  </si>
+  <si>
+    <t>815966102</t>
+  </si>
+  <si>
+    <t>09:42:33:533660</t>
+  </si>
+  <si>
+    <t>813882057</t>
+  </si>
+  <si>
+    <t>09:42:33:701110</t>
+  </si>
+  <si>
+    <t>813216163</t>
+  </si>
+  <si>
+    <t>09:43:59:794706</t>
+  </si>
+  <si>
+    <t>10447</t>
+  </si>
+  <si>
+    <t>945945482</t>
+  </si>
+  <si>
+    <t>09:43:59:954961</t>
+  </si>
+  <si>
+    <t>10155</t>
+  </si>
+  <si>
+    <t>941831529</t>
+  </si>
+  <si>
+    <t>09:44:00:139792</t>
+  </si>
+  <si>
+    <t>9744</t>
+  </si>
+  <si>
+    <t>931997514</t>
+  </si>
+  <si>
+    <t>09:44:00:301990</t>
+  </si>
+  <si>
+    <t>9655</t>
+  </si>
+  <si>
+    <t>928903001</t>
+  </si>
+  <si>
+    <t>09:44:00:468710</t>
+  </si>
+  <si>
+    <t>9259</t>
+  </si>
+  <si>
+    <t>925684465</t>
+  </si>
+  <si>
+    <t>09:44:00:635567</t>
+  </si>
+  <si>
+    <t>9075</t>
+  </si>
+  <si>
+    <t>921809221</t>
+  </si>
+  <si>
+    <t>09:44:00:798757</t>
+  </si>
+  <si>
+    <t>8844</t>
+  </si>
+  <si>
+    <t>912441758</t>
+  </si>
+  <si>
+    <t>09:44:00:965070</t>
+  </si>
+  <si>
+    <t>8519</t>
+  </si>
+  <si>
+    <t>912100511</t>
+  </si>
+  <si>
+    <t>09:44:01:130832</t>
+  </si>
+  <si>
+    <t>8422</t>
+  </si>
+  <si>
+    <t>904510301</t>
+  </si>
+  <si>
+    <t>09:44:01:310380</t>
+  </si>
+  <si>
+    <t>8108</t>
+  </si>
+  <si>
+    <t>902050332</t>
+  </si>
+  <si>
+    <t>09:44:01:480025</t>
+  </si>
+  <si>
+    <t>945940336</t>
+  </si>
+  <si>
+    <t>09:44:01:644110</t>
+  </si>
+  <si>
+    <t>941803312</t>
+  </si>
+  <si>
+    <t>09:44:01:806774</t>
+  </si>
+  <si>
+    <t>931993376</t>
+  </si>
+  <si>
+    <t>09:44:01:976170</t>
+  </si>
+  <si>
+    <t>928899260</t>
+  </si>
+  <si>
+    <t>09:44:02:149596</t>
+  </si>
+  <si>
+    <t>925678435</t>
+  </si>
+  <si>
+    <t>09:44:02:318834</t>
+  </si>
+  <si>
+    <t>921805388</t>
+  </si>
+  <si>
+    <t>09:44:02:502996</t>
+  </si>
+  <si>
+    <t>912431364</t>
+  </si>
+  <si>
+    <t>09:44:02:677019</t>
+  </si>
+  <si>
+    <t>912096281</t>
+  </si>
+  <si>
+    <t>09:44:02:847158</t>
+  </si>
+  <si>
+    <t>904505339</t>
+  </si>
+  <si>
+    <t>09:44:03:014664</t>
+  </si>
+  <si>
+    <t>902045623</t>
+  </si>
+  <si>
+    <t>09:45:29:806204</t>
+  </si>
+  <si>
+    <t>12874</t>
+  </si>
+  <si>
+    <t>1044704097</t>
+  </si>
+  <si>
+    <t>09:45:29:970689</t>
+  </si>
+  <si>
+    <t>12644</t>
+  </si>
+  <si>
+    <t>1044007167</t>
+  </si>
+  <si>
+    <t>09:45:30:142423</t>
+  </si>
+  <si>
+    <t>12398</t>
+  </si>
+  <si>
+    <t>1033635672</t>
+  </si>
+  <si>
+    <t>09:45:30:328146</t>
+  </si>
+  <si>
+    <t>12128</t>
+  </si>
+  <si>
+    <t>1026606345</t>
+  </si>
+  <si>
+    <t>09:45:30:498320</t>
+  </si>
+  <si>
+    <t>11968</t>
+  </si>
+  <si>
+    <t>1017552389</t>
+  </si>
+  <si>
+    <t>09:45:30:671494</t>
+  </si>
+  <si>
+    <t>11701</t>
+  </si>
+  <si>
+    <t>1014941824</t>
+  </si>
+  <si>
+    <t>09:45:30:841177</t>
+  </si>
+  <si>
+    <t>11503</t>
+  </si>
+  <si>
+    <t>1012043753</t>
+  </si>
+  <si>
+    <t>09:45:31:026891</t>
+  </si>
+  <si>
+    <t>11082</t>
+  </si>
+  <si>
+    <t>1000931723</t>
+  </si>
+  <si>
+    <t>09:45:31:202061</t>
+  </si>
+  <si>
+    <t>10944</t>
+  </si>
+  <si>
+    <t>995204916</t>
+  </si>
+  <si>
+    <t>09:45:31:383467</t>
+  </si>
+  <si>
+    <t>10702</t>
+  </si>
+  <si>
+    <t>987914969</t>
   </si>
 </sst>
 </file>
@@ -1586,6 +2739,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D871DDD8-E935-4218-B16D-2F9E6A8DA4C9}" name="Tabelle1" displayName="Tabelle1" ref="A1:J148" totalsRowShown="0">
+  <autoFilter ref="A1:J148" xr:uid="{E7D95504-A711-403E-85A2-C196A519D147}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AB1050FF-3E2E-469B-A86F-ECE3BE758C71}" name="Measurement Time [H:M:S:US]"/>
+    <tableColumn id="2" xr3:uid="{CB780D3B-BCDD-4CFB-88A3-9A83DE647D03}" name="Message ID [n]"/>
+    <tableColumn id="3" xr3:uid="{19B5B652-88A0-47CE-8709-D48AB683FFCD}" name="Network Time Unacknowledged [us]"/>
+    <tableColumn id="4" xr3:uid="{5E3D8DA1-A725-4673-8C1D-713F83E4CC02}" name="Network Time Acknowledged [us]"/>
+    <tableColumn id="5" xr3:uid="{675F5EED-1EA8-41E5-A9D9-4B8C3D307975}" name="Number of Hops [n]"/>
+    <tableColumn id="6" xr3:uid="{A76E3122-FE3C-4F25-9D75-589E1D420002}" name="RSSI [dB]"/>
+    <tableColumn id="7" xr3:uid="{F3D24569-C199-4F19-AA9B-04284AA97DEF}" name="Source Address [n]"/>
+    <tableColumn id="8" xr3:uid="{77767958-3A9E-4BF9-9193-DE6D2F05DDE7}" name="Destination Address [n]"/>
+    <tableColumn id="9" xr3:uid="{1A3E2A3A-9157-43F4-9228-CEE862F888DF}" name="Group Address [n]"/>
+    <tableColumn id="10" xr3:uid="{73977999-4E55-4ECB-91B2-E94E44FA04E1}" name="Data Size Transmited [Bit]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,7 +3027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,9 +3039,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +3073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +3105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1965,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1997,7 +3169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2029,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +3233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2093,7 +3265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +3297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +3329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2189,7 +3361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2221,7 +3393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2253,7 +3425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2285,7 +3457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2317,7 +3489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +3521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2381,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2413,7 +3585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2445,7 +3617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2477,7 +3649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2509,7 +3681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2541,7 +3713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2573,7 +3745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2605,7 +3777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2637,7 +3809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2669,7 +3841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2701,7 +3873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +3905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -2765,7 +3937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2797,7 +3969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2829,7 +4001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2861,7 +4033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2893,7 +4065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -2925,7 +4097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2957,7 +4129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2989,7 +4161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3021,7 +4193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -3053,7 +4225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -3085,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -3117,7 +4289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3149,7 +4321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -3181,7 +4353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -3213,7 +4385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -3245,7 +4417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -3277,7 +4449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -3309,7 +4481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -3341,7 +4513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -3373,7 +4545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -3405,7 +4577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -3437,7 +4609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3469,7 +4641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -3501,7 +4673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -3533,7 +4705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -3565,7 +4737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3597,7 +4769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -3629,7 +4801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -3661,7 +4833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -3693,7 +4865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>164</v>
       </c>
@@ -3725,7 +4897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -3757,7 +4929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -3789,7 +4961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -3821,7 +4993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -3853,7 +5025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -3885,7 +5057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -3917,7 +5089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -3949,7 +5121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -3981,7 +5153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -4013,7 +5185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -4045,7 +5217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -4077,7 +5249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -4109,7 +5281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -4141,7 +5313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -4173,7 +5345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -4205,7 +5377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -4246,25 +5418,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +5468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -4328,7 +5500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -4360,7 +5532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -4392,7 +5564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -4424,7 +5596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -4456,7 +5628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -4488,7 +5660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -4520,7 +5692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -4552,7 +5724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -4584,7 +5756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -4616,7 +5788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -4648,7 +5820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -4680,7 +5852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -4712,7 +5884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -4744,7 +5916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -4776,7 +5948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -4808,7 +5980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>253</v>
       </c>
@@ -4840,7 +6012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>255</v>
       </c>
@@ -4872,7 +6044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>257</v>
       </c>
@@ -4904,7 +6076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>260</v>
       </c>
@@ -4936,7 +6108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -4968,7 +6140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -5000,7 +6172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>269</v>
       </c>
@@ -5032,7 +6204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -5064,7 +6236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -5096,7 +6268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>278</v>
       </c>
@@ -5128,7 +6300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -5160,7 +6332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>284</v>
       </c>
@@ -5192,7 +6364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -5224,7 +6396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -5256,7 +6428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -5288,7 +6460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -5320,7 +6492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>295</v>
       </c>
@@ -5352,7 +6524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -5384,7 +6556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -5416,7 +6588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>301</v>
       </c>
@@ -5448,7 +6620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>303</v>
       </c>
@@ -5480,7 +6652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>305</v>
       </c>
@@ -5512,7 +6684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>307</v>
       </c>
@@ -5544,7 +6716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>310</v>
       </c>
@@ -5576,7 +6748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>313</v>
       </c>
@@ -5608,7 +6780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -5640,7 +6812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>319</v>
       </c>
@@ -5672,7 +6844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>322</v>
       </c>
@@ -5704,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>325</v>
       </c>
@@ -5736,7 +6908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>328</v>
       </c>
@@ -5768,7 +6940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>331</v>
       </c>
@@ -5800,7 +6972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>334</v>
       </c>
@@ -5832,7 +7004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>337</v>
       </c>
@@ -5864,7 +7036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -5896,7 +7068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -5928,7 +7100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -5960,7 +7132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>345</v>
       </c>
@@ -5992,7 +7164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>348</v>
       </c>
@@ -6024,7 +7196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>350</v>
       </c>
@@ -6056,7 +7228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>352</v>
       </c>
@@ -6088,7 +7260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>354</v>
       </c>
@@ -6120,7 +7292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>356</v>
       </c>
@@ -6152,7 +7324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -6184,7 +7356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -6216,7 +7388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -6248,7 +7420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>368</v>
       </c>
@@ -6280,7 +7452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>371</v>
       </c>
@@ -6312,7 +7484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -6344,7 +7516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>377</v>
       </c>
@@ -6376,7 +7548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>380</v>
       </c>
@@ -6408,7 +7580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>383</v>
       </c>
@@ -6440,7 +7612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>386</v>
       </c>
@@ -6472,7 +7644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>388</v>
       </c>
@@ -6504,7 +7676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>390</v>
       </c>
@@ -6536,7 +7708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>392</v>
       </c>
@@ -6568,7 +7740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>394</v>
       </c>
@@ -6600,7 +7772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>396</v>
       </c>
@@ -6632,7 +7804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>398</v>
       </c>
@@ -6664,7 +7836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>400</v>
       </c>
@@ -6696,7 +7868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -6728,7 +7900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -6760,7 +7932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>407</v>
       </c>
@@ -6792,7 +7964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -6824,7 +7996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>413</v>
       </c>
@@ -6856,7 +8028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>416</v>
       </c>
@@ -6888,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>419</v>
       </c>
@@ -6920,7 +8092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>422</v>
       </c>
@@ -6952,7 +8124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>425</v>
       </c>
@@ -6984,7 +8156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>428</v>
       </c>
@@ -7016,7 +8188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -7048,7 +8220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>434</v>
       </c>
@@ -7080,7 +8252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>436</v>
       </c>
@@ -7112,7 +8284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>438</v>
       </c>
@@ -7144,7 +8316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>440</v>
       </c>
@@ -7176,7 +8348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>442</v>
       </c>
@@ -7208,7 +8380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>444</v>
       </c>
@@ -7240,7 +8412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>446</v>
       </c>
@@ -7272,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>448</v>
       </c>
@@ -7304,7 +8476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>450</v>
       </c>
@@ -7336,7 +8508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>452</v>
       </c>
@@ -7368,7 +8540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>454</v>
       </c>
@@ -7400,7 +8572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>457</v>
       </c>
@@ -7432,7 +8604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>460</v>
       </c>
@@ -7464,7 +8636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>463</v>
       </c>
@@ -7496,7 +8668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>466</v>
       </c>
@@ -7528,7 +8700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>469</v>
       </c>
@@ -7560,7 +8732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>472</v>
       </c>
@@ -7592,7 +8764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>475</v>
       </c>
@@ -7624,7 +8796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>478</v>
       </c>
@@ -7656,7 +8828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>481</v>
       </c>
@@ -7688,7 +8860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>484</v>
       </c>
@@ -7720,7 +8892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>486</v>
       </c>
@@ -7752,7 +8924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>488</v>
       </c>
@@ -7784,7 +8956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -7816,7 +8988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>492</v>
       </c>
@@ -7848,7 +9020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>494</v>
       </c>
@@ -7880,7 +9052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -7912,7 +9084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>498</v>
       </c>
@@ -7944,7 +9116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>500</v>
       </c>
@@ -7976,7 +9148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>502</v>
       </c>
@@ -8011,4 +9183,4770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>508</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>508</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>538</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>539</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>539</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>539</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>539</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>539</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>539</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>539</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C19" t="s">
+        <v>556</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>539</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>539</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>559</v>
+      </c>
+      <c r="B21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" t="s">
+        <v>561</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>508</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>562</v>
+      </c>
+      <c r="B22" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>565</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>508</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>566</v>
+      </c>
+      <c r="B23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>565</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>508</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>570</v>
+      </c>
+      <c r="C24" t="s">
+        <v>571</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" t="s">
+        <v>573</v>
+      </c>
+      <c r="C25" t="s">
+        <v>574</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>565</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>508</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>507</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>508</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>578</v>
+      </c>
+      <c r="B27" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>507</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>508</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>581</v>
+      </c>
+      <c r="B28" t="s">
+        <v>582</v>
+      </c>
+      <c r="C28" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>508</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B29" t="s">
+        <v>585</v>
+      </c>
+      <c r="C29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>512</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>508</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>587</v>
+      </c>
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C30" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>539</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" t="s">
+        <v>560</v>
+      </c>
+      <c r="C31" t="s">
+        <v>591</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>539</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>539</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" t="s">
+        <v>595</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B34" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" t="s">
+        <v>597</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>539</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" t="s">
+        <v>599</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>539</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>600</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>601</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>539</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>539</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" t="s">
+        <v>582</v>
+      </c>
+      <c r="C38" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>539</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>606</v>
+      </c>
+      <c r="B39" t="s">
+        <v>585</v>
+      </c>
+      <c r="C39" t="s">
+        <v>607</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>608</v>
+      </c>
+      <c r="B40" t="s">
+        <v>609</v>
+      </c>
+      <c r="C40" t="s">
+        <v>610</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>507</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>508</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B41" t="s">
+        <v>612</v>
+      </c>
+      <c r="C41" t="s">
+        <v>613</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>512</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>508</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>614</v>
+      </c>
+      <c r="B42" t="s">
+        <v>609</v>
+      </c>
+      <c r="C42" t="s">
+        <v>615</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>539</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>616</v>
+      </c>
+      <c r="B43" t="s">
+        <v>612</v>
+      </c>
+      <c r="C43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>539</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>618</v>
+      </c>
+      <c r="B44" t="s">
+        <v>619</v>
+      </c>
+      <c r="C44" t="s">
+        <v>620</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>539</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" t="s">
+        <v>622</v>
+      </c>
+      <c r="C45" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>539</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B46" t="s">
+        <v>625</v>
+      </c>
+      <c r="C46" t="s">
+        <v>626</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>539</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>627</v>
+      </c>
+      <c r="B47" t="s">
+        <v>628</v>
+      </c>
+      <c r="C47" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>539</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48" t="s">
+        <v>631</v>
+      </c>
+      <c r="C48" t="s">
+        <v>632</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>539</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B49" t="s">
+        <v>634</v>
+      </c>
+      <c r="C49" t="s">
+        <v>635</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>539</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>636</v>
+      </c>
+      <c r="B50" t="s">
+        <v>637</v>
+      </c>
+      <c r="C50" t="s">
+        <v>638</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>539</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>639</v>
+      </c>
+      <c r="B51" t="s">
+        <v>640</v>
+      </c>
+      <c r="C51" t="s">
+        <v>641</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>539</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>642</v>
+      </c>
+      <c r="B52" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" t="s">
+        <v>643</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>512</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>508</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B53" t="s">
+        <v>622</v>
+      </c>
+      <c r="C53" t="s">
+        <v>645</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>508</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>646</v>
+      </c>
+      <c r="B54" t="s">
+        <v>625</v>
+      </c>
+      <c r="C54" t="s">
+        <v>647</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>565</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>508</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>648</v>
+      </c>
+      <c r="B55" t="s">
+        <v>628</v>
+      </c>
+      <c r="C55" t="s">
+        <v>649</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>512</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>508</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>650</v>
+      </c>
+      <c r="B56" t="s">
+        <v>631</v>
+      </c>
+      <c r="C56" t="s">
+        <v>651</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>508</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>652</v>
+      </c>
+      <c r="B57" t="s">
+        <v>634</v>
+      </c>
+      <c r="C57" t="s">
+        <v>653</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>565</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>508</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>654</v>
+      </c>
+      <c r="B58" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" t="s">
+        <v>655</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>565</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>508</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>656</v>
+      </c>
+      <c r="B59" t="s">
+        <v>640</v>
+      </c>
+      <c r="C59" t="s">
+        <v>657</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>507</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>508</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>658</v>
+      </c>
+      <c r="B60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C60" t="s">
+        <v>660</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>539</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>661</v>
+      </c>
+      <c r="B61" t="s">
+        <v>662</v>
+      </c>
+      <c r="C61" t="s">
+        <v>663</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>539</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>664</v>
+      </c>
+      <c r="B62" t="s">
+        <v>665</v>
+      </c>
+      <c r="C62" t="s">
+        <v>666</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>539</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>667</v>
+      </c>
+      <c r="B63" t="s">
+        <v>668</v>
+      </c>
+      <c r="C63" t="s">
+        <v>669</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>539</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>670</v>
+      </c>
+      <c r="B64" t="s">
+        <v>671</v>
+      </c>
+      <c r="C64" t="s">
+        <v>672</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>539</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>673</v>
+      </c>
+      <c r="B65" t="s">
+        <v>674</v>
+      </c>
+      <c r="C65" t="s">
+        <v>675</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>539</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>676</v>
+      </c>
+      <c r="B66" t="s">
+        <v>677</v>
+      </c>
+      <c r="C66" t="s">
+        <v>678</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>539</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>679</v>
+      </c>
+      <c r="B67" t="s">
+        <v>680</v>
+      </c>
+      <c r="C67" t="s">
+        <v>681</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>539</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>682</v>
+      </c>
+      <c r="B68" t="s">
+        <v>683</v>
+      </c>
+      <c r="C68" t="s">
+        <v>684</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>539</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>685</v>
+      </c>
+      <c r="B69" t="s">
+        <v>686</v>
+      </c>
+      <c r="C69" t="s">
+        <v>687</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>539</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>688</v>
+      </c>
+      <c r="B70" t="s">
+        <v>659</v>
+      </c>
+      <c r="C70" t="s">
+        <v>689</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>508</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>690</v>
+      </c>
+      <c r="B71" t="s">
+        <v>662</v>
+      </c>
+      <c r="C71" t="s">
+        <v>691</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>512</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>508</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>692</v>
+      </c>
+      <c r="B72" t="s">
+        <v>665</v>
+      </c>
+      <c r="C72" t="s">
+        <v>693</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>507</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>508</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>694</v>
+      </c>
+      <c r="B73" t="s">
+        <v>668</v>
+      </c>
+      <c r="C73" t="s">
+        <v>695</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>512</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>508</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>696</v>
+      </c>
+      <c r="B74" t="s">
+        <v>671</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>508</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>698</v>
+      </c>
+      <c r="B75" t="s">
+        <v>674</v>
+      </c>
+      <c r="C75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>700</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>508</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>701</v>
+      </c>
+      <c r="B76" t="s">
+        <v>677</v>
+      </c>
+      <c r="C76" t="s">
+        <v>702</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" t="s">
+        <v>703</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>508</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>704</v>
+      </c>
+      <c r="B77" t="s">
+        <v>680</v>
+      </c>
+      <c r="C77" t="s">
+        <v>705</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>512</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>508</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>706</v>
+      </c>
+      <c r="B78" t="s">
+        <v>683</v>
+      </c>
+      <c r="C78" t="s">
+        <v>707</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>508</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>708</v>
+      </c>
+      <c r="B79" t="s">
+        <v>686</v>
+      </c>
+      <c r="C79" t="s">
+        <v>709</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>565</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>508</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>710</v>
+      </c>
+      <c r="B80" t="s">
+        <v>711</v>
+      </c>
+      <c r="C80" t="s">
+        <v>712</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>512</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>508</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>713</v>
+      </c>
+      <c r="B81" t="s">
+        <v>714</v>
+      </c>
+      <c r="C81" t="s">
+        <v>715</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>512</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>508</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>716</v>
+      </c>
+      <c r="B82" t="s">
+        <v>717</v>
+      </c>
+      <c r="C82" t="s">
+        <v>718</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>507</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>508</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>719</v>
+      </c>
+      <c r="B83" t="s">
+        <v>720</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>507</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>508</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>722</v>
+      </c>
+      <c r="B84" t="s">
+        <v>723</v>
+      </c>
+      <c r="C84" t="s">
+        <v>724</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>516</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>508</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>725</v>
+      </c>
+      <c r="B85" t="s">
+        <v>726</v>
+      </c>
+      <c r="C85" t="s">
+        <v>727</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>516</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>508</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>728</v>
+      </c>
+      <c r="B86" t="s">
+        <v>729</v>
+      </c>
+      <c r="C86" t="s">
+        <v>730</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>516</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>508</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>731</v>
+      </c>
+      <c r="B87" t="s">
+        <v>732</v>
+      </c>
+      <c r="C87" t="s">
+        <v>733</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>516</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>508</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>734</v>
+      </c>
+      <c r="B88" t="s">
+        <v>735</v>
+      </c>
+      <c r="C88" t="s">
+        <v>736</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>516</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>508</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>737</v>
+      </c>
+      <c r="B89" t="s">
+        <v>738</v>
+      </c>
+      <c r="C89" t="s">
+        <v>739</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>516</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>508</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>740</v>
+      </c>
+      <c r="B90" t="s">
+        <v>711</v>
+      </c>
+      <c r="C90" t="s">
+        <v>741</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>539</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>742</v>
+      </c>
+      <c r="B91" t="s">
+        <v>714</v>
+      </c>
+      <c r="C91" t="s">
+        <v>743</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>539</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>744</v>
+      </c>
+      <c r="B92" t="s">
+        <v>717</v>
+      </c>
+      <c r="C92" t="s">
+        <v>745</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>539</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>746</v>
+      </c>
+      <c r="B93" t="s">
+        <v>720</v>
+      </c>
+      <c r="C93" t="s">
+        <v>747</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>539</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>748</v>
+      </c>
+      <c r="B94" t="s">
+        <v>723</v>
+      </c>
+      <c r="C94" t="s">
+        <v>749</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>539</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>750</v>
+      </c>
+      <c r="B95" t="s">
+        <v>726</v>
+      </c>
+      <c r="C95" t="s">
+        <v>751</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>539</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>752</v>
+      </c>
+      <c r="B96" t="s">
+        <v>729</v>
+      </c>
+      <c r="C96" t="s">
+        <v>753</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>539</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>754</v>
+      </c>
+      <c r="B97" t="s">
+        <v>732</v>
+      </c>
+      <c r="C97" t="s">
+        <v>755</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>539</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>756</v>
+      </c>
+      <c r="B98" t="s">
+        <v>735</v>
+      </c>
+      <c r="C98" t="s">
+        <v>757</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>539</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>758</v>
+      </c>
+      <c r="B99" t="s">
+        <v>738</v>
+      </c>
+      <c r="C99" t="s">
+        <v>759</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>539</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>760</v>
+      </c>
+      <c r="B100" t="s">
+        <v>761</v>
+      </c>
+      <c r="C100" t="s">
+        <v>762</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>539</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>763</v>
+      </c>
+      <c r="B101" t="s">
+        <v>764</v>
+      </c>
+      <c r="C101" t="s">
+        <v>765</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>512</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>508</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>766</v>
+      </c>
+      <c r="B102" t="s">
+        <v>767</v>
+      </c>
+      <c r="C102" t="s">
+        <v>768</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>507</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>508</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>769</v>
+      </c>
+      <c r="B103" t="s">
+        <v>770</v>
+      </c>
+      <c r="C103" t="s">
+        <v>771</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>516</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>508</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>772</v>
+      </c>
+      <c r="B104" t="s">
+        <v>773</v>
+      </c>
+      <c r="C104" t="s">
+        <v>774</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>507</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>508</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>775</v>
+      </c>
+      <c r="B105" t="s">
+        <v>776</v>
+      </c>
+      <c r="C105" t="s">
+        <v>777</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>700</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>508</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>778</v>
+      </c>
+      <c r="B106" t="s">
+        <v>779</v>
+      </c>
+      <c r="C106" t="s">
+        <v>780</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>507</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>508</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>781</v>
+      </c>
+      <c r="B107" t="s">
+        <v>782</v>
+      </c>
+      <c r="C107" t="s">
+        <v>783</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>507</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>508</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>784</v>
+      </c>
+      <c r="B108" t="s">
+        <v>785</v>
+      </c>
+      <c r="C108" t="s">
+        <v>786</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>507</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>508</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>787</v>
+      </c>
+      <c r="B109" t="s">
+        <v>788</v>
+      </c>
+      <c r="C109" t="s">
+        <v>789</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>507</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>508</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>790</v>
+      </c>
+      <c r="B110" t="s">
+        <v>764</v>
+      </c>
+      <c r="C110" t="s">
+        <v>791</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>539</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>792</v>
+      </c>
+      <c r="B111" t="s">
+        <v>767</v>
+      </c>
+      <c r="C111" t="s">
+        <v>793</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>539</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>794</v>
+      </c>
+      <c r="B112" t="s">
+        <v>770</v>
+      </c>
+      <c r="C112" t="s">
+        <v>795</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>539</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>796</v>
+      </c>
+      <c r="B113" t="s">
+        <v>773</v>
+      </c>
+      <c r="C113" t="s">
+        <v>797</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>539</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>798</v>
+      </c>
+      <c r="B114" t="s">
+        <v>776</v>
+      </c>
+      <c r="C114" t="s">
+        <v>799</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>539</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>800</v>
+      </c>
+      <c r="B115" t="s">
+        <v>779</v>
+      </c>
+      <c r="C115" t="s">
+        <v>801</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>539</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>802</v>
+      </c>
+      <c r="B116" t="s">
+        <v>782</v>
+      </c>
+      <c r="C116" t="s">
+        <v>803</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>539</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>804</v>
+      </c>
+      <c r="B117" t="s">
+        <v>785</v>
+      </c>
+      <c r="C117" t="s">
+        <v>805</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>539</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>806</v>
+      </c>
+      <c r="B118" t="s">
+        <v>788</v>
+      </c>
+      <c r="C118" t="s">
+        <v>807</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>539</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>808</v>
+      </c>
+      <c r="B119" t="s">
+        <v>809</v>
+      </c>
+      <c r="C119" t="s">
+        <v>810</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>507</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>508</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>811</v>
+      </c>
+      <c r="B120" t="s">
+        <v>812</v>
+      </c>
+      <c r="C120" t="s">
+        <v>813</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>507</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>508</v>
+      </c>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>814</v>
+      </c>
+      <c r="B121" t="s">
+        <v>815</v>
+      </c>
+      <c r="C121" t="s">
+        <v>816</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>512</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>508</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>817</v>
+      </c>
+      <c r="B122" t="s">
+        <v>818</v>
+      </c>
+      <c r="C122" t="s">
+        <v>819</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>512</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>508</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>820</v>
+      </c>
+      <c r="B123" t="s">
+        <v>821</v>
+      </c>
+      <c r="C123" t="s">
+        <v>822</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>512</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>508</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>823</v>
+      </c>
+      <c r="B124" t="s">
+        <v>824</v>
+      </c>
+      <c r="C124" t="s">
+        <v>825</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>565</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>508</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>826</v>
+      </c>
+      <c r="B125" t="s">
+        <v>827</v>
+      </c>
+      <c r="C125" t="s">
+        <v>828</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>516</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>508</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>829</v>
+      </c>
+      <c r="B126" t="s">
+        <v>830</v>
+      </c>
+      <c r="C126" t="s">
+        <v>831</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>507</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>508</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>832</v>
+      </c>
+      <c r="B127" t="s">
+        <v>833</v>
+      </c>
+      <c r="C127" t="s">
+        <v>834</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>507</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>508</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>835</v>
+      </c>
+      <c r="B128" t="s">
+        <v>836</v>
+      </c>
+      <c r="C128" t="s">
+        <v>837</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>507</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>508</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>838</v>
+      </c>
+      <c r="B129" t="s">
+        <v>809</v>
+      </c>
+      <c r="C129" t="s">
+        <v>839</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>539</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>840</v>
+      </c>
+      <c r="B130" t="s">
+        <v>812</v>
+      </c>
+      <c r="C130" t="s">
+        <v>841</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>539</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>842</v>
+      </c>
+      <c r="B131" t="s">
+        <v>815</v>
+      </c>
+      <c r="C131" t="s">
+        <v>843</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>539</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>844</v>
+      </c>
+      <c r="B132" t="s">
+        <v>818</v>
+      </c>
+      <c r="C132" t="s">
+        <v>845</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>539</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>846</v>
+      </c>
+      <c r="B133" t="s">
+        <v>821</v>
+      </c>
+      <c r="C133" t="s">
+        <v>847</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>539</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>848</v>
+      </c>
+      <c r="B134" t="s">
+        <v>824</v>
+      </c>
+      <c r="C134" t="s">
+        <v>849</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>539</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>850</v>
+      </c>
+      <c r="B135" t="s">
+        <v>827</v>
+      </c>
+      <c r="C135" t="s">
+        <v>851</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>539</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>852</v>
+      </c>
+      <c r="B136" t="s">
+        <v>830</v>
+      </c>
+      <c r="C136" t="s">
+        <v>853</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>539</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>854</v>
+      </c>
+      <c r="B137" t="s">
+        <v>833</v>
+      </c>
+      <c r="C137" t="s">
+        <v>855</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>539</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>856</v>
+      </c>
+      <c r="B138" t="s">
+        <v>836</v>
+      </c>
+      <c r="C138" t="s">
+        <v>857</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>539</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>858</v>
+      </c>
+      <c r="B139" t="s">
+        <v>859</v>
+      </c>
+      <c r="C139" t="s">
+        <v>860</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>507</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>508</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>861</v>
+      </c>
+      <c r="B140" t="s">
+        <v>862</v>
+      </c>
+      <c r="C140" t="s">
+        <v>863</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>512</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>508</v>
+      </c>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>864</v>
+      </c>
+      <c r="B141" t="s">
+        <v>865</v>
+      </c>
+      <c r="C141" t="s">
+        <v>866</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>507</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>508</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>867</v>
+      </c>
+      <c r="B142" t="s">
+        <v>868</v>
+      </c>
+      <c r="C142" t="s">
+        <v>869</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>507</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" t="s">
+        <v>508</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>870</v>
+      </c>
+      <c r="B143" t="s">
+        <v>871</v>
+      </c>
+      <c r="C143" t="s">
+        <v>872</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>507</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>508</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>873</v>
+      </c>
+      <c r="B144" t="s">
+        <v>874</v>
+      </c>
+      <c r="C144" t="s">
+        <v>875</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>507</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>508</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>876</v>
+      </c>
+      <c r="B145" t="s">
+        <v>877</v>
+      </c>
+      <c r="C145" t="s">
+        <v>878</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>507</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>508</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>879</v>
+      </c>
+      <c r="B146" t="s">
+        <v>880</v>
+      </c>
+      <c r="C146" t="s">
+        <v>881</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>512</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>508</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>882</v>
+      </c>
+      <c r="B147" t="s">
+        <v>883</v>
+      </c>
+      <c r="C147" t="s">
+        <v>884</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>507</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>508</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>885</v>
+      </c>
+      <c r="B148" t="s">
+        <v>886</v>
+      </c>
+      <c r="C148" t="s">
+        <v>887</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>512</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>508</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>